--- a/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/6.xlsx
+++ b/ΠΟΡΕΙΑ_ΤΙΜΟΚΑΤΑΛΟΓΟΥ_ΠΩΛΗΣΕΩΝ/excel/6.xlsx
@@ -707,10 +707,10 @@
       </c>
     </row>
     <row r="7" spans="1:12">
-      <c r="J7" s="5">
+      <c r="K7" s="5">
         <v>47</v>
       </c>
-      <c r="K7" s="5">
+      <c r="L7" s="5">
         <v>68.16</v>
       </c>
     </row>
